--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUS_Files\Y3S1\CS3210\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A046396-8368-4CBF-B419-D019EC478CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110903B6-F713-4A25-B1B4-594FECB6C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule()" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>k</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Schedule(guided, k) : using srun --partition=i7-13700 --time=00:10:00 perf stat -e task-clock -r 3 ./sim.perf tests/standard/10k_density_0.7.in 8</t>
+  </si>
+  <si>
+    <t>2nd try</t>
+  </si>
+  <si>
+    <t>3rd try</t>
   </si>
 </sst>
 </file>
@@ -3268,34 +3274,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1692</c:v>
+                  <c:v>1.1639200000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15578</c:v>
+                  <c:v>1.1998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1991000000000001</c:v>
+                  <c:v>1.1837</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.18398</c:v>
+                  <c:v>1.18519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1571899999999999</c:v>
+                  <c:v>1.165783</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1947000000000001</c:v>
+                  <c:v>1.1716599999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1747000000000001</c:v>
+                  <c:v>1.1756</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1931</c:v>
+                  <c:v>1.1800999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.17797</c:v>
+                  <c:v>1.177</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1825000000000001</c:v>
+                  <c:v>1.1782999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3389,34 +3395,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.2263999999999999</c:v>
+                  <c:v>1.1581999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1690700000000001</c:v>
+                  <c:v>1.1977</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1871</c:v>
+                  <c:v>1.1820999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1829000000000001</c:v>
+                  <c:v>1.1700999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1779999999999999</c:v>
+                  <c:v>1.2114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1631</c:v>
+                  <c:v>1.1778299999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1908000000000001</c:v>
+                  <c:v>1.18021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1501999999999999</c:v>
+                  <c:v>1.1671499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1693</c:v>
+                  <c:v>1.1882999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1678200000000001</c:v>
+                  <c:v>1.1859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18814,7 +18820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K11" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -19302,10 +19308,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305777B1-AC1D-40F6-9E93-BA704A7C7C59}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19350,38 +19356,38 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>1.1692</v>
+        <v>1.1639200000000001</v>
       </c>
       <c r="C2">
-        <v>1.15578</v>
+        <v>1.1998</v>
       </c>
       <c r="D2">
-        <v>1.1991000000000001</v>
+        <v>1.1837</v>
       </c>
       <c r="E2">
-        <v>1.18398</v>
+        <v>1.18519</v>
       </c>
       <c r="F2">
-        <v>1.1571899999999999</v>
+        <v>1.165783</v>
       </c>
       <c r="G2">
-        <v>1.1947000000000001</v>
+        <v>1.1716599999999999</v>
       </c>
       <c r="H2">
-        <v>1.1747000000000001</v>
+        <v>1.1756</v>
       </c>
       <c r="I2">
-        <v>1.1931</v>
+        <v>1.1800999999999999</v>
       </c>
       <c r="J2">
-        <v>1.17797</v>
+        <v>1.177</v>
       </c>
       <c r="K2">
-        <v>1.1825000000000001</v>
+        <v>1.1782999999999999</v>
       </c>
       <c r="L2">
         <f>AVERAGE(B2:K2)</f>
-        <v>1.1788219999999998</v>
+        <v>1.1781052999999999</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -19389,42 +19395,42 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <v>1.2263999999999999</v>
+        <v>1.1581999999999999</v>
       </c>
       <c r="C3">
-        <v>1.1690700000000001</v>
+        <v>1.1977</v>
       </c>
       <c r="D3">
-        <v>1.1871</v>
+        <v>1.1820999999999999</v>
       </c>
       <c r="E3">
-        <v>1.1829000000000001</v>
+        <v>1.1700999999999999</v>
       </c>
       <c r="F3">
-        <v>1.1779999999999999</v>
+        <v>1.2114</v>
       </c>
       <c r="G3">
-        <v>1.1631</v>
+        <v>1.1778299999999999</v>
       </c>
       <c r="H3">
-        <v>1.1908000000000001</v>
+        <v>1.18021</v>
       </c>
       <c r="I3">
-        <v>1.1501999999999999</v>
+        <v>1.1671499999999999</v>
       </c>
       <c r="J3">
-        <v>1.1693</v>
+        <v>1.1882999999999999</v>
       </c>
       <c r="K3">
-        <v>1.1678200000000001</v>
+        <v>1.1859</v>
       </c>
       <c r="L3">
         <f>AVERAGE(B3:K3)</f>
-        <v>1.1784690000000002</v>
+        <v>1.181889</v>
       </c>
       <c r="M3">
         <f>(L3-L2)/L3</f>
-        <v>-2.9954118436683832E-4</v>
+        <v>3.2014004699257347E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -19664,6 +19670,240 @@
       <c r="M30">
         <f>(L30-L29)/L30</f>
         <v>0.10922634759541583</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>8</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <v>1.1692</v>
+      </c>
+      <c r="C36">
+        <v>1.15578</v>
+      </c>
+      <c r="D36">
+        <v>1.1991000000000001</v>
+      </c>
+      <c r="E36">
+        <v>1.18398</v>
+      </c>
+      <c r="F36">
+        <v>1.1571899999999999</v>
+      </c>
+      <c r="G36">
+        <v>1.1947000000000001</v>
+      </c>
+      <c r="H36">
+        <v>1.1747000000000001</v>
+      </c>
+      <c r="I36">
+        <v>1.1931</v>
+      </c>
+      <c r="J36">
+        <v>1.17797</v>
+      </c>
+      <c r="K36">
+        <v>1.1825000000000001</v>
+      </c>
+      <c r="L36">
+        <f>AVERAGE(B36:K36)</f>
+        <v>1.1788219999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37">
+        <v>1.2263999999999999</v>
+      </c>
+      <c r="C37">
+        <v>1.1690700000000001</v>
+      </c>
+      <c r="D37">
+        <v>1.1871</v>
+      </c>
+      <c r="E37">
+        <v>1.1829000000000001</v>
+      </c>
+      <c r="F37">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="G37">
+        <v>1.1631</v>
+      </c>
+      <c r="H37">
+        <v>1.1908000000000001</v>
+      </c>
+      <c r="I37">
+        <v>1.1501999999999999</v>
+      </c>
+      <c r="J37">
+        <v>1.1693</v>
+      </c>
+      <c r="K37">
+        <v>1.1678200000000001</v>
+      </c>
+      <c r="L37">
+        <f>AVERAGE(B37:K37)</f>
+        <v>1.1784690000000002</v>
+      </c>
+      <c r="M37">
+        <f>(L37-L36)/L37</f>
+        <v>-2.9954118436683832E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>1.1742999999999999</v>
+      </c>
+      <c r="C40">
+        <v>1.2499</v>
+      </c>
+      <c r="D40">
+        <v>1.2099</v>
+      </c>
+      <c r="E40">
+        <v>1.1772</v>
+      </c>
+      <c r="F40">
+        <v>1.1835899999999999</v>
+      </c>
+      <c r="G40">
+        <v>1.16717</v>
+      </c>
+      <c r="H40">
+        <v>1.1611800000000001</v>
+      </c>
+      <c r="I40">
+        <v>1.2298</v>
+      </c>
+      <c r="J40">
+        <v>1.1668000000000001</v>
+      </c>
+      <c r="K40">
+        <v>1.2768999999999999</v>
+      </c>
+      <c r="L40">
+        <f>AVERAGE(B40:K40)</f>
+        <v>1.1996739999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>1.1780200000000001</v>
+      </c>
+      <c r="C41">
+        <v>1.1629</v>
+      </c>
+      <c r="D41">
+        <v>1.18096</v>
+      </c>
+      <c r="E41">
+        <v>1.1932</v>
+      </c>
+      <c r="F41">
+        <v>1.1486000000000001</v>
+      </c>
+      <c r="G41">
+        <v>1.1613</v>
+      </c>
+      <c r="H41">
+        <v>1.1941900000000001</v>
+      </c>
+      <c r="I41">
+        <v>1.1782999999999999</v>
+      </c>
+      <c r="J41">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="K41">
+        <v>1.2078</v>
+      </c>
+      <c r="L41">
+        <f>AVERAGE(B41:K41)</f>
+        <v>1.1923270000000001</v>
+      </c>
+      <c r="M41">
+        <f>(L41-L40)/L41</f>
+        <v>-6.1619002169704864E-3</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NUS_Files\Y3S1\CS3210\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110903B6-F713-4A25-B1B4-594FECB6C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C00A9D-6B3C-4BBC-B651-70E1E27147C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule()" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>k</t>
   </si>
@@ -147,13 +147,13 @@
     <t>Schedule(guided, k) : using srun --partition=i7-13700 --time=00:10:00 perf stat -e task-clock -r 3 ./sim.perf tests/large/100k_density_0.9.in 8</t>
   </si>
   <si>
-    <t>Schedule(guided, k) : using srun --partition=i7-13700 --time=00:10:00 perf stat -e task-clock -r 3 ./sim.perf tests/standard/10k_density_0.7.in 8</t>
-  </si>
-  <si>
     <t>2nd try</t>
   </si>
   <si>
     <t>3rd try</t>
+  </si>
+  <si>
+    <t>Schedule(guided, k) : using srun --partition=i7-13700 --time=00:10:00 perf stat -e task-clock -r 3 ./bonus.perf tests/large/100k_density_0.9.in 8</t>
   </si>
 </sst>
 </file>
@@ -684,6 +684,976 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>xs-4114, 20 threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>radius!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>radius!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.29155999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25742999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FEE-4B05-B22B-400341A54F18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1214692799"/>
+        <c:axId val="1214695679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1214692799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t>Radius of Particles</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214695679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1214695679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Taken(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214692799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-SG"/>
+              <a:t>xs-4114, 20 threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>steps!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>steps!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56010000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0130999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1124000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5698000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.77244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEDA-4C3C-92D3-C044CE34EBD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1214692799"/>
+        <c:axId val="1214695679"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1214692799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>No.</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> of Steps</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214695679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1214695679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Taken(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214692799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1364,7 +2334,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1857,7 +2827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2543,7 +3513,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3117,7 +4087,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3767,7 +4737,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4417,7 +5387,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6549,6 +7519,996 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Alternate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Row Resolve: schedule(guided,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> k)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'schedule()'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'schedule()'!$B$33:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'schedule()'!$B$34:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.77949999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76780000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72353000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76124000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67210000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79E5-43E7-ACF3-CED6792C4AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="64328176"/>
+        <c:axId val="64330096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64328176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64330096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64330096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Taken(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64328176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Alternate</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Row Resolve: schedule(dynamic,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> k)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'schedule()'!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'schedule()'!$B$33:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'schedule()'!$B$38:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73770000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76139999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66595000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-452A-44C1-8938-F08732F1AB76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="64328176"/>
+        <c:axId val="64330096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="64328176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>k</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64330096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64330096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Taken(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64328176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-SG"/>
               <a:t>xs-4114</a:t>
             </a:r>
@@ -7064,7 +9024,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7309,982 +9269,6 @@
                 <a:r>
                   <a:rPr lang="en-SG" baseline="0"/>
                   <a:t> of Particles</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-SG"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1214695679"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1214695679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-SG"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-SG" baseline="0"/>
-                  <a:t> Taken(s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-SG"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1214692799"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>xs-4114, 20 threads</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'grid length'!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'grid length'!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.7831999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0286999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99639999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2860400000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6087499999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2458999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5522999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8885999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.19503</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.5274000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EDBA-4F38-9BFC-CFBB879B9571}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1214692799"/>
-        <c:axId val="1214695679"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1214692799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-SG"/>
-                  <a:t>Grid</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-SG" baseline="0"/>
-                  <a:t> Length</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-SG"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1214695679"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1214695679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-SG"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-SG" baseline="0"/>
-                  <a:t> Taken(s)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-SG"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1214692799"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-SG"/>
-              <a:t>xs-4114, 20 threads</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>radius!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>radius!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.29155999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1908</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15920000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1381</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17960000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19420000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.25742999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4FEE-4B05-B22B-400341A54F18}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1214692799"/>
-        <c:axId val="1214695679"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1214692799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-SG" baseline="0"/>
-                  <a:t>Radius of Particles</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-SG"/>
               </a:p>
@@ -8631,78 +9615,84 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>steps!$C$2:$C$11</c:f>
+              <c:f>'grid length'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>60000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>70000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>180</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>200</c:v>
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>steps!$D$2:$D$11</c:f>
+              <c:f>'grid length'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.4138</c:v>
+                  <c:v>2.7831999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56010000000000004</c:v>
+                  <c:v>1.0286999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72009999999999996</c:v>
+                  <c:v>0.99639999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88939999999999997</c:v>
+                  <c:v>1.2860400000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0130999999999999</c:v>
+                  <c:v>1.6087499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1124000000000001</c:v>
+                  <c:v>1.9330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2881</c:v>
+                  <c:v>2.2458999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4370000000000001</c:v>
+                  <c:v>2.5522999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5698000000000001</c:v>
+                  <c:v>2.8885999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.77244</c:v>
+                  <c:v>3.19503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5274000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8710,7 +9700,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EEDA-4C3C-92D3-C044CE34EBD7}"/>
+              <c16:uniqueId val="{00000000-EDBA-4F38-9BFC-CFBB879B9571}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8767,11 +9757,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-SG"/>
-                  <a:t>No.</a:t>
+                  <a:t>Grid</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-SG" baseline="0"/>
-                  <a:t> of Steps</a:t>
+                  <a:t> Length</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-SG"/>
               </a:p>
@@ -9334,6 +10324,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13782,6 +14852,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -18051,6 +20153,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632F62E2-30A2-40A1-876B-67C11CB4C115}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>509588</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95D8F5D-4541-494D-8084-64A498E4C741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18818,10 +20996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:M40"/>
+  <dimension ref="A4:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19128,85 +21306,116 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
         <v>4</v>
       </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <v>7</v>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0.1754</v>
+        <v>0.77949999999999997</v>
       </c>
       <c r="C34">
-        <v>0.10699</v>
+        <v>0.76780000000000004</v>
       </c>
       <c r="D34">
-        <v>0.11040999999999999</v>
+        <v>0.72353000000000001</v>
       </c>
       <c r="E34">
-        <v>0.1135</v>
+        <v>0.76124000000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.67210000000000003</v>
+      </c>
+      <c r="G34">
+        <v>0.69386000000000003</v>
+      </c>
+      <c r="H34">
+        <v>0.67210000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
         <v>3</v>
       </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
         <v>1</v>
       </c>
-      <c r="B40">
-        <v>0.1119</v>
-      </c>
-      <c r="C40">
-        <v>0.10699</v>
-      </c>
-      <c r="D40">
-        <v>0.10693</v>
-      </c>
-      <c r="E40">
-        <v>0.183</v>
+      <c r="B38">
+        <v>0.73280000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D38">
+        <v>0.73770000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="H38">
+        <v>0.66595000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -19310,7 +21519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305777B1-AC1D-40F6-9E93-BA704A7C7C59}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
@@ -19674,7 +21883,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -19791,7 +22000,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>1</v>
